--- a/archivos/Cientes_Reservas.xlsx
+++ b/archivos/Cientes_Reservas.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t xml:space="preserve">NOMBRE</t>
   </si>
@@ -43,6 +43,45 @@
   </si>
   <si>
     <t xml:space="preserve">VALOR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PRECIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RUTA PROGRMA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIRECCION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROPIETARIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TIPO COMERCIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LINK LOGO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAGT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JOSEGARJAGT@GMAIL.COM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/APP – RESERVAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">./EMP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XXXXXXXXX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BARBERIA</t>
   </si>
   <si>
     <t xml:space="preserve">SALDO</t>
@@ -67,16 +106,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="dd/mm/yy"/>
+    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="dd/mm/yy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -92,6 +133,13 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -143,28 +191,40 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -193,32 +253,32 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.69"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="1" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.18"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -238,45 +298,116 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G1"/>
+  <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="16.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="0" width="13.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16.17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.05"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="13.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="13.35"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="14.46"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="13.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.31"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
-        <v>6</v>
+      <c r="G1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>19999888</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45413</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>90005467832</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>3205511091</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45448</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="JOSEGARJAGT@GMAIL.COM"/>
+    <hyperlink ref="D3" r:id="rId2" display="JOSEGARJAGT@GMAIL.COM"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -300,150 +431,150 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="31.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="19.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="20.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="12.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="13.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.16"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
+      <c r="C1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="J1" s="5"/>
+      <c r="K1" s="5"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
+      <c r="N1" s="5"/>
+      <c r="O1" s="5"/>
+      <c r="P1" s="5"/>
+      <c r="Q1" s="5"/>
+      <c r="R1" s="5"/>
+      <c r="S1" s="5"/>
+      <c r="T1" s="5"/>
+      <c r="U1" s="5"/>
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="4" t="n">
         <v>573205511091</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="3" t="n">
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="6" t="n">
         <v>20000</v>
       </c>
-      <c r="D2" s="4" t="n">
+      <c r="D2" s="7" t="n">
         <v>45444</v>
       </c>
-      <c r="E2" s="1" t="str">
+      <c r="E2" s="4" t="str">
         <f aca="true">IF(D2&lt;TODAY(),"VENCIDO","VIGENTE")</f>
         <v>VENCIDO</v>
       </c>
-      <c r="F2" s="2" t="n">
+      <c r="F2" s="5" t="n">
         <f aca="true">IF(D2&lt;TODAY(),TODAY()-D2,"-")</f>
-        <v>35</v>
-      </c>
-      <c r="G2" s="2" t="str">
+        <v>121</v>
+      </c>
+      <c r="G2" s="5" t="str">
         <f aca="false">"Cordial saludo "&amp;B2&amp;"."&amp;"%0A"&amp;"%0A"&amp;"me permitoinformarle quepresenta un atraso de "&amp;F2&amp;"dias en el pago de su cuenta"&amp;"%0A"&amp;"0A"&amp;"Su saldo es :"&amp;TEXT($C2,"0.00")</f>
-        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de 35dias en el pago de su cuenta%0A0ASu saldo es :20000,00</v>
-      </c>
-      <c r="H2" s="5"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="2"/>
-      <c r="Q2" s="2"/>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
+        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de 121dias en el pago de su cuenta%0A0ASu saldo es :20000,00</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="5"/>
+      <c r="T2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="4" t="n">
         <v>573205511092</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="3" t="n">
+      <c r="B3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="6" t="n">
         <v>20001</v>
       </c>
-      <c r="D3" s="4" t="n">
+      <c r="D3" s="7" t="n">
         <v>45506</v>
       </c>
-      <c r="E3" s="1" t="str">
+      <c r="E3" s="4" t="str">
         <f aca="true">IF(D3&lt;TODAY(),"VENCIDO","VIGENTE")</f>
-        <v>VIGENTE</v>
-      </c>
-      <c r="F3" s="2" t="str">
+        <v>VENCIDO</v>
+      </c>
+      <c r="F3" s="5" t="n">
         <f aca="true">IF(D3&lt;TODAY(),TODAY()-D3,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="G3" s="2" t="str">
+        <v>59</v>
+      </c>
+      <c r="G3" s="5" t="str">
         <f aca="false">"Cordial saludo "&amp;B3&amp;"."&amp;"%0A"&amp;"%0A"&amp;"me permitoinformarle quepresenta un atraso de "&amp;F3&amp;"dias en el pago de su cuenta"&amp;"%0A"&amp;"0A"&amp;"Su saldo es :"&amp;TEXT($C3,"0,00")</f>
-        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de -dias en el pago de su cuenta%0A0ASu saldo es :20001,00</v>
+        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de 59dias en el pago de su cuenta%0A0ASu saldo es :20001,00</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="4" t="n">
         <v>573205511093</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="6" t="n">
         <v>20002</v>
       </c>
-      <c r="D4" s="4" t="n">
+      <c r="D4" s="7" t="n">
         <v>45507</v>
       </c>
-      <c r="E4" s="1" t="str">
+      <c r="E4" s="4" t="str">
         <f aca="true">IF(D4&lt;TODAY(),"VENCIDO","VIGENTE")</f>
-        <v>VIGENTE</v>
-      </c>
-      <c r="F4" s="2" t="str">
+        <v>VENCIDO</v>
+      </c>
+      <c r="F4" s="5" t="n">
         <f aca="true">IF(D4&lt;TODAY(),TODAY()-D4,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="G4" s="2" t="str">
+        <v>58</v>
+      </c>
+      <c r="G4" s="5" t="str">
         <f aca="false">"Cordial saludo "&amp;B4&amp;"."&amp;"%0A"&amp;"%0A"&amp;"me permitoinformarle quepresenta un atraso de "&amp;F4&amp;"dias en el pago de su cuenta"&amp;"%0A"&amp;"0A"&amp;"Su saldo es :"&amp;TEXT($C4,"0,00")</f>
-        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de -dias en el pago de su cuenta%0A0ASu saldo es :20002,00</v>
+        <v>Cordial saludo Alejanadro Garcia.%0A%0Ame permitoinformarle quepresenta un atraso de 58dias en el pago de su cuenta%0A0ASu saldo es :20002,00</v>
       </c>
     </row>
   </sheetData>
